--- a/TestCases/data/TestData.xlsx
+++ b/TestCases/data/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11820" windowWidth="16425"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11820" windowWidth="16425"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Login" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,7 +34,21 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -48,8 +62,109 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -60,121 +175,6 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,26 +379,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,7 +413,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,32 +453,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="8" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="22" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -496,133 +496,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="10" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="22" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -950,8 +950,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -968,12 +968,12 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>test_No</t>
+          <t>testNo</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>test_point</t>
+          <t>testName</t>
         </is>
       </c>
       <c r="C1" s="0" t="inlineStr">
@@ -1352,8 +1352,8 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1370,12 +1370,12 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>test_No</t>
+          <t>testNo</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>test_point</t>
+          <t>testName</t>
         </is>
       </c>
       <c r="C1" s="0" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>自选</t>
+          <t>ppp</t>
         </is>
       </c>
     </row>
@@ -1490,8 +1490,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
